--- a/Base/Teams/Buccaneers/Target Depth Data.xlsx
+++ b/Base/Teams/Buccaneers/Target Depth Data.xlsx
@@ -450,19 +450,19 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>504</v>
+        <v>549</v>
       </c>
       <c r="C3">
-        <v>365</v>
+        <v>399</v>
       </c>
       <c r="D3">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="E3">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="F3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G3">
         <v>6</v>
@@ -529,16 +529,16 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>544</v>
+        <v>579</v>
       </c>
       <c r="C3">
-        <v>393</v>
+        <v>420</v>
       </c>
       <c r="D3">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="E3">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="F3">
         <v>10</v>

--- a/Base/Teams/Buccaneers/Target Depth Data.xlsx
+++ b/Base/Teams/Buccaneers/Target Depth Data.xlsx
@@ -427,16 +427,16 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>402</v>
+        <v>440</v>
       </c>
       <c r="C2">
-        <v>277</v>
+        <v>304</v>
       </c>
       <c r="D2">
-        <v>106</v>
+        <v>116</v>
       </c>
       <c r="E2">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="F2">
         <v>6</v>
@@ -506,19 +506,19 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>492</v>
+        <v>539</v>
       </c>
       <c r="C2">
-        <v>343</v>
+        <v>375</v>
       </c>
       <c r="D2">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="E2">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="F2">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G2">
         <v>8</v>

--- a/Base/Teams/Buccaneers/Target Depth Data.xlsx
+++ b/Base/Teams/Buccaneers/Target Depth Data.xlsx
@@ -450,19 +450,19 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>549</v>
+        <v>590</v>
       </c>
       <c r="C3">
-        <v>399</v>
+        <v>424</v>
       </c>
       <c r="D3">
-        <v>155</v>
+        <v>162</v>
       </c>
       <c r="E3">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F3">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G3">
         <v>6</v>
@@ -529,16 +529,16 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>579</v>
+        <v>600</v>
       </c>
       <c r="C3">
-        <v>420</v>
+        <v>431</v>
       </c>
       <c r="D3">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="E3">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="F3">
         <v>10</v>

--- a/Base/Teams/Buccaneers/Target Depth Data.xlsx
+++ b/Base/Teams/Buccaneers/Target Depth Data.xlsx
@@ -450,16 +450,16 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>590</v>
+        <v>614</v>
       </c>
       <c r="C3">
-        <v>424</v>
+        <v>438</v>
       </c>
       <c r="D3">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="E3">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="F3">
         <v>7</v>
@@ -529,19 +529,19 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>600</v>
+        <v>637</v>
       </c>
       <c r="C3">
-        <v>431</v>
+        <v>452</v>
       </c>
       <c r="D3">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="E3">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F3">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G3">
         <v>5</v>

--- a/Base/Teams/Buccaneers/Target Depth Data.xlsx
+++ b/Base/Teams/Buccaneers/Target Depth Data.xlsx
@@ -450,22 +450,22 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>614</v>
+        <v>647</v>
       </c>
       <c r="C3">
-        <v>438</v>
+        <v>463</v>
       </c>
       <c r="D3">
-        <v>168</v>
+        <v>184</v>
       </c>
       <c r="E3">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="F3">
         <v>7</v>
       </c>
       <c r="G3">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -529,16 +529,16 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>637</v>
+        <v>663</v>
       </c>
       <c r="C3">
-        <v>452</v>
+        <v>466</v>
       </c>
       <c r="D3">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="E3">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="F3">
         <v>11</v>

--- a/Base/Teams/Buccaneers/Target Depth Data.xlsx
+++ b/Base/Teams/Buccaneers/Target Depth Data.xlsx
@@ -427,16 +427,16 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>440</v>
+        <v>501</v>
       </c>
       <c r="C2">
-        <v>304</v>
+        <v>354</v>
       </c>
       <c r="D2">
-        <v>116</v>
+        <v>130</v>
       </c>
       <c r="E2">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="F2">
         <v>6</v>
@@ -506,22 +506,22 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>539</v>
+        <v>600</v>
       </c>
       <c r="C2">
-        <v>375</v>
+        <v>419</v>
       </c>
       <c r="D2">
-        <v>109</v>
+        <v>129</v>
       </c>
       <c r="E2">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="F2">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G2">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:7">

--- a/Base/Teams/Buccaneers/Target Depth Data.xlsx
+++ b/Base/Teams/Buccaneers/Target Depth Data.xlsx
@@ -427,22 +427,22 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>501</v>
+        <v>544</v>
       </c>
       <c r="C2">
-        <v>354</v>
+        <v>380</v>
       </c>
       <c r="D2">
-        <v>130</v>
+        <v>141</v>
       </c>
       <c r="E2">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="F2">
         <v>6</v>
       </c>
       <c r="G2">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -506,16 +506,16 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>600</v>
+        <v>631</v>
       </c>
       <c r="C2">
-        <v>419</v>
+        <v>442</v>
       </c>
       <c r="D2">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="E2">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="F2">
         <v>13</v>
